--- a/python-service/November_2024.xlsx
+++ b/python-service/November_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codingv2/financial-dashboard/python-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDEE4D8-97D4-E945-9F78-555889BEF4D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2BC594-9ECC-B349-924C-9D1DCEF971D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -649,6 +649,96 @@
   </si>
   <si>
     <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Sent money to Client AC re Foresight Works</t>
+  </si>
+  <si>
+    <t>Sent money to Foresight Works Ltd</t>
+  </si>
+  <si>
+    <t>Card transaction of 97.61 GBP issued by Chisou Restaurant London</t>
+  </si>
+  <si>
+    <t>Card transaction of 13.00 GBP issued by Zettle_*Stuart Austrie Forest Gate</t>
+  </si>
+  <si>
+    <t>Card transaction of 139.21 GBP issued by Ganymede London</t>
+  </si>
+  <si>
+    <t>Card transaction of 8.99 GBP issued by Amazon.co.uk 3528008547917</t>
+  </si>
+  <si>
+    <t>Sent money to american express</t>
+  </si>
+  <si>
+    <t>Card transaction of 1,602.00 GBP issued by Zendesk.com - Ire +18886704887</t>
+  </si>
+  <si>
+    <t>Card transaction of 613.44 GBP issued by Paypal *Hotels.com 35314369001</t>
+  </si>
+  <si>
+    <t>Card transaction of 17.20 GBP issued by Sumup  *John Hensman Bexleyheath</t>
+  </si>
+  <si>
+    <t>Card transaction of 53.20 GBP issued by Artist Residence London</t>
+  </si>
+  <si>
+    <t>Sent money to mishcon de reya llp</t>
+  </si>
+  <si>
+    <t>Card transaction of 207.83 GBP issued by Slack Tc05m7fbl +35315137661</t>
+  </si>
+  <si>
+    <t>Card transaction of 79.99 GBP issued by Linkedin Sn *192534486 LNKD.IN/BILL</t>
+  </si>
+  <si>
+    <t>Card transaction of 32.80 GBP issued by Lopay  Taxi* Lopay CROYDON</t>
+  </si>
+  <si>
+    <t>Received money from CLP POWER HONG KONG LIMITED with reference INV. 091024 FR.09.10.24 Y1: MODULE 2 (BLUE BELT)</t>
+  </si>
+  <si>
+    <t>Card transaction of 6.20 GBP issued by Tfl Travel Charge TFL.gov.uk/CP</t>
+  </si>
+  <si>
+    <t>Card transaction of 16.40 GBP issued by Cmt Uk Ltd Taxi Fare London</t>
+  </si>
+  <si>
+    <t>Card transaction of 11.40 GBP issued by Txw*London Taxi 61667 Glasgow</t>
+  </si>
+  <si>
+    <t>Card transaction of 24.90 GBP issued by Gails Canary Wharf London</t>
+  </si>
+  <si>
+    <t>Fee refund</t>
+  </si>
+  <si>
+    <t>Card transaction of 5.35 GBP issued by Uber   *Lime London</t>
+  </si>
+  <si>
+    <t>Card transaction of 16.64 GBP issued by Adobe Saggart, Dubl</t>
+  </si>
+  <si>
+    <t>Card transaction of 45.83 GBP issued by Linkedin Pre P276630274 LINKEDIN.COM</t>
+  </si>
+  <si>
+    <t>Card transaction of 14.04 GBP issued by Amznbusiness amazon.co.uk</t>
+  </si>
+  <si>
+    <t>Card transaction of 16.64 GBP issued by Adobe  *Adobe Dublin</t>
+  </si>
+  <si>
+    <t>Card transaction of 15.60 GBP issued by Cmt Uk Ltd Taxi Fare London</t>
+  </si>
+  <si>
+    <t>Card transaction of 152.40 GBP issued by Wheely * C41bc7 London</t>
+  </si>
+  <si>
+    <t>Card transaction of -822.87 GBP issued by Paypal *Hotels.com 35314369001</t>
+  </si>
+  <si>
+    <t>Insurance</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1124,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1531,7 +1621,7 @@
         <v>134</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F24" t="s">
         <v>26</v>
@@ -1551,7 +1641,7 @@
         <v>134</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
         <v>27</v>
@@ -1571,7 +1661,7 @@
         <v>134</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -1611,7 +1701,7 @@
         <v>134</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
         <v>30</v>
@@ -3045,7 +3135,7 @@
         <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F100" t="s">
         <v>82</v>
@@ -3185,7 +3275,7 @@
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F107" t="s">
         <v>89</v>
@@ -3950,7 +4040,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="B146">
         <v>-16017.13</v>
@@ -3970,7 +4060,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="B147">
         <v>-8540.4599999999991</v>
@@ -3990,7 +4080,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="B148">
         <v>-7117.97</v>
@@ -4010,7 +4100,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="B149">
         <v>-4454.4799999999996</v>
@@ -4030,7 +4120,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="B150">
         <v>-5111.2299999999996</v>
@@ -4050,7 +4140,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>45631</v>
+        <v>45625</v>
       </c>
       <c r="B151">
         <v>-9488.7999999999993</v>
@@ -4070,7 +4160,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>45632</v>
+        <v>45625</v>
       </c>
       <c r="B152">
         <v>-1014.4</v>
@@ -4090,7 +4180,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="B153">
         <v>16079.72</v>
@@ -4323,7 +4413,9 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
+      <c r="A165" s="1">
+        <v>45625</v>
+      </c>
       <c r="B165">
         <v>-14625.377874372498</v>
       </c>
@@ -4341,6 +4433,9 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45625</v>
+      </c>
       <c r="B166">
         <v>-13372.901251195279</v>
       </c>
@@ -4358,6 +4453,9 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45625</v>
+      </c>
       <c r="B167">
         <v>-12778.943651919006</v>
       </c>
@@ -4375,6 +4473,9 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45625</v>
+      </c>
       <c r="B168">
         <v>-9830.1318532816076</v>
       </c>
@@ -4392,6 +4493,9 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45625</v>
+      </c>
       <c r="B169">
         <v>-10537.227335115933</v>
       </c>
@@ -4409,6 +4513,9 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45625</v>
+      </c>
       <c r="B170">
         <v>-9108.6378677116663</v>
       </c>
@@ -4426,6 +4533,9 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45625</v>
+      </c>
       <c r="B171">
         <v>-9522.6649547714933</v>
       </c>
@@ -4443,6 +4553,9 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45625</v>
+      </c>
       <c r="B172">
         <v>-9395.1517526963835</v>
       </c>
@@ -4460,6 +4573,9 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45625</v>
+      </c>
       <c r="B173">
         <v>-8601.9053707120111</v>
       </c>
@@ -4477,6 +4593,9 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45625</v>
+      </c>
       <c r="B174">
         <v>-3588.0338246243155</v>
       </c>
@@ -4494,6 +4613,9 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45625</v>
+      </c>
       <c r="B175">
         <v>-1563.0027345267306</v>
       </c>
@@ -4511,6 +4633,9 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45625</v>
+      </c>
       <c r="B176">
         <v>-349.69529659992367</v>
       </c>
@@ -4527,7 +4652,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45625</v>
+      </c>
       <c r="B177">
         <v>-2760.0260189417813</v>
       </c>
@@ -4544,7 +4672,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45625</v>
+      </c>
       <c r="B178">
         <v>-8073.0761054047098</v>
       </c>
@@ -4561,7 +4692,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45625</v>
+      </c>
       <c r="B179">
         <v>-1248.3597683673677</v>
       </c>
@@ -4578,7 +4712,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45625</v>
+      </c>
       <c r="B180">
         <v>-3312.0312227301374</v>
       </c>
@@ -4595,7 +4732,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45625</v>
+      </c>
       <c r="B181">
         <v>-871.89221938370872</v>
       </c>
@@ -4610,6 +4750,619 @@
       </c>
       <c r="F181" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B182">
+        <v>-80000</v>
+      </c>
+      <c r="C182" t="s">
+        <v>131</v>
+      </c>
+      <c r="F182" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45624</v>
+      </c>
+      <c r="B183">
+        <v>80000</v>
+      </c>
+      <c r="C183" t="s">
+        <v>131</v>
+      </c>
+      <c r="F183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B184">
+        <v>-50</v>
+      </c>
+      <c r="C184" t="s">
+        <v>131</v>
+      </c>
+      <c r="F184" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45623</v>
+      </c>
+      <c r="B185">
+        <v>50</v>
+      </c>
+      <c r="C185" t="s">
+        <v>131</v>
+      </c>
+      <c r="F185" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45616</v>
+      </c>
+      <c r="B186">
+        <v>-2147.15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>131</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F186" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45615</v>
+      </c>
+      <c r="B187">
+        <v>-97.61</v>
+      </c>
+      <c r="C187" t="s">
+        <v>131</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F187" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B188">
+        <v>-13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>131</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F188" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B189">
+        <v>-139.21</v>
+      </c>
+      <c r="C189" t="s">
+        <v>131</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F189" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B190">
+        <v>-8.99</v>
+      </c>
+      <c r="C190" t="s">
+        <v>131</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F190" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45614</v>
+      </c>
+      <c r="B191">
+        <v>-1500</v>
+      </c>
+      <c r="C191" t="s">
+        <v>131</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F191" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B192">
+        <v>-1602</v>
+      </c>
+      <c r="C192" t="s">
+        <v>131</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F192" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45612</v>
+      </c>
+      <c r="B193">
+        <v>-613.44000000000005</v>
+      </c>
+      <c r="C193" t="s">
+        <v>131</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="F193" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B194">
+        <v>-17.2</v>
+      </c>
+      <c r="C194" t="s">
+        <v>131</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F194" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B195">
+        <v>-53.2</v>
+      </c>
+      <c r="C195" t="s">
+        <v>131</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F195" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B196">
+        <v>-154200</v>
+      </c>
+      <c r="C196" t="s">
+        <v>131</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F196" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B197">
+        <v>120000</v>
+      </c>
+      <c r="C197" t="s">
+        <v>131</v>
+      </c>
+      <c r="F197" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45611</v>
+      </c>
+      <c r="B198">
+        <v>-207.83</v>
+      </c>
+      <c r="C198" t="s">
+        <v>131</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F198" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B199">
+        <v>-79.989999999999995</v>
+      </c>
+      <c r="C199" t="s">
+        <v>131</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F199" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45609</v>
+      </c>
+      <c r="B200">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="C200" t="s">
+        <v>131</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F200" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B201">
+        <v>39985</v>
+      </c>
+      <c r="C201" t="s">
+        <v>131</v>
+      </c>
+      <c r="F201" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45608</v>
+      </c>
+      <c r="B202">
+        <v>-6.2</v>
+      </c>
+      <c r="C202" t="s">
+        <v>131</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F202" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B203">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="C203" t="s">
+        <v>131</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F203" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B204">
+        <v>-11.4</v>
+      </c>
+      <c r="C204" t="s">
+        <v>131</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F204" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B205">
+        <v>-24.9</v>
+      </c>
+      <c r="C205" t="s">
+        <v>131</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F205" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B206">
+        <v>229.95</v>
+      </c>
+      <c r="C206" t="s">
+        <v>131</v>
+      </c>
+      <c r="F206" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45607</v>
+      </c>
+      <c r="B207">
+        <v>-5.35</v>
+      </c>
+      <c r="C207" t="s">
+        <v>131</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F207" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B208">
+        <v>-16.64</v>
+      </c>
+      <c r="C208" t="s">
+        <v>131</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F208" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B209">
+        <v>-45.83</v>
+      </c>
+      <c r="C209" t="s">
+        <v>131</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F209" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45606</v>
+      </c>
+      <c r="B210">
+        <v>-14.04</v>
+      </c>
+      <c r="C210" t="s">
+        <v>131</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F210" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B211">
+        <v>-16.64</v>
+      </c>
+      <c r="C211" t="s">
+        <v>131</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F211" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B212">
+        <v>-15.6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>131</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F212" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B213">
+        <v>-152.4</v>
+      </c>
+      <c r="C213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F213" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45604</v>
+      </c>
+      <c r="B214">
+        <v>822.87</v>
+      </c>
+      <c r="C214" t="s">
+        <v>131</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="F214" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1048576" s="1">
+        <v>45625</v>
       </c>
     </row>
   </sheetData>

--- a/python-service/November_2024.xlsx
+++ b/python-service/November_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codingv2/financial-dashboard/python-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2BC594-9ECC-B349-924C-9D1DCEF971D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F70236-BD4A-4745-AA76-2436478E5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6560" yWindow="3400" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance Statement" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="238">
   <si>
     <t>Date</t>
   </si>
@@ -739,6 +739,15 @@
   </si>
   <si>
     <t>Insurance</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>gfjfiy</t>
   </si>
 </sst>
 </file>
@@ -1126,8 +1135,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="F222" sqref="F222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5358,6 +5367,21 @@
       <c r="D214" s="2"/>
       <c r="F214" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F220" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F222" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F223" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">

--- a/python-service/November_2024.xlsx
+++ b/python-service/November_2024.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codingv2/financial-dashboard/python-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F70236-BD4A-4745-AA76-2436478E5B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4059ABA-5B22-C349-977C-814746CC10D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6560" yWindow="3400" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="4660" windowWidth="26040" windowHeight="14940" xr2:uid="{A507FD9E-F6F5-7F44-ADF7-346FF8F072E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Balance Statement" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="235">
   <si>
     <t>Date</t>
   </si>
@@ -45,33 +47,81 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Exchange Rate</t>
+  </si>
+  <si>
+    <t>Payment Reference</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>sales</t>
   </si>
   <si>
     <t>Card transaction of 455.84 USD issued by Courtyard Dulles Twn Ctrn DULLES</t>
   </si>
   <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t>g&amp;a</t>
+  </si>
+  <si>
     <t>Card transaction of 12.99 GBP issued by Zoom.us 888-799-9666 +18887999666</t>
   </si>
   <si>
     <t>Card transaction of 12.60 GBP issued by Txw*London Taxi 80213 Glasgow</t>
   </si>
   <si>
+    <t>professional services</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
     <t>Sent money to The ebury Partnership llp</t>
   </si>
   <si>
+    <t>Foresight</t>
+  </si>
+  <si>
+    <t>payroll</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
     <t>Sent money to Sophia Ortega Lares</t>
   </si>
   <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>sundry</t>
+  </si>
+  <si>
     <t>Card transaction of 133.95 GBP issued by Wild By Tart London</t>
   </si>
   <si>
     <t>Sent money to foresight works israel ltd</t>
   </si>
   <si>
+    <t>Novemebr</t>
+  </si>
+  <si>
     <t>Card transaction of 10.99 GBP issued by Scribd *640989547 Schiphol</t>
   </si>
   <si>
@@ -84,6 +134,9 @@
     <t>Card transaction of 287.13 GBP issued by Dialpad Inc SAN RAMON</t>
   </si>
   <si>
+    <t>sundy</t>
+  </si>
+  <si>
     <t>Card transaction of 248.86 GBP issued by Olivomare London</t>
   </si>
   <si>
@@ -108,9 +161,15 @@
     <t>Sent money to Phillips Golf and Company, Llp</t>
   </si>
   <si>
+    <t>Ross</t>
+  </si>
+  <si>
     <t>Sent money to Ross Rhoades</t>
   </si>
   <si>
+    <t>Final sal</t>
+  </si>
+  <si>
     <t>Card transaction of 14.99 USD issued by Amazon Prime Amzn.com/bill</t>
   </si>
   <si>
@@ -135,6 +194,12 @@
     <t>Received money from COMPASSDATA2512 with reference PAYMENT</t>
   </si>
   <si>
+    <t>PAYMENT</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
     <t>Card transaction of 66,897.00 RSD issued by Gigatron Doo Beograd BEOGRAD</t>
   </si>
   <si>
@@ -144,6 +209,12 @@
     <t>Received money from HEALTH NEW ZEALAND TARANAKI with reference /ROC/CPBT28782838///URI/INVOICE 1411241 Q4</t>
   </si>
   <si>
+    <t>/ROC/CPBT28782838///URI/INVOICE 1411241 Q4</t>
+  </si>
+  <si>
+    <t>r&amp;d &amp; product</t>
+  </si>
+  <si>
     <t>Card transaction of 1,077.50 USD issued by Atlassian +31207960060</t>
   </si>
   <si>
@@ -153,15 +224,27 @@
     <t>Sent money to advice cloud ltd</t>
   </si>
   <si>
+    <t>inv 1671</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
     <t>Paid to PREMIUM CREDIT</t>
   </si>
   <si>
+    <t>099581FC-19112024</t>
+  </si>
+  <si>
     <t>Card transaction of 179,900.00 RSD issued by Istyle Stores Doo Beog NOVI BEOGRAD</t>
   </si>
   <si>
     <t>Sent money to leonas s corp</t>
   </si>
   <si>
+    <t>Inv 3</t>
+  </si>
+  <si>
     <t>Card transaction of 60.00 EUR issued by Lagrowthmachine +33672166947</t>
   </si>
   <si>
@@ -171,24 +254,39 @@
     <t>Card transaction of 180.00 USD issued by Alive5 +18886964513</t>
   </si>
   <si>
+    <t>marketing</t>
+  </si>
+  <si>
     <t>Card transaction of 33.60 USD issued by Wix.com*1146791107 800-6000949</t>
   </si>
   <si>
     <t>Sent money to Foresight USA Inc.</t>
   </si>
   <si>
+    <t>Spa</t>
+  </si>
+  <si>
     <t>Converted 152,516.06 USD to 120,000.00 GBP</t>
   </si>
   <si>
     <t>Card transaction of 1,166.66 USD issued by Criteriacorp +13102788649</t>
   </si>
   <si>
+    <t>advertising</t>
+  </si>
+  <si>
     <t>Card transaction of 1,234.15 CAD issued by Linkedin Sn 10037113916 LINKEDIN.COM</t>
   </si>
   <si>
+    <t>expenses</t>
+  </si>
+  <si>
     <t>Sent money to STRAHINJA MILOVANOVIC PR AGENCIJA ZA KONSALTING ZRENJANIN</t>
   </si>
   <si>
+    <t>Expenses</t>
+  </si>
+  <si>
     <t>Card transaction of 24.00 USD issued by Openai *Chatgpt Subscr +14158799686</t>
   </si>
   <si>
@@ -234,6 +332,15 @@
     <t>Paid to GoCardless Ltd</t>
   </si>
   <si>
+    <t>0E6D66B8-06112024</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>hosting</t>
+  </si>
+  <si>
     <t>Card transaction of 6,290.16 GBP issued by Aws Emea aws.amazon.co</t>
   </si>
   <si>
@@ -264,18 +371,30 @@
     <t>Received money from KENNECOTT UTAH COPPER LLC with reference 40002000380749 /POP  SUPPLY GOO /DSOR SERV /PHON  447882049778</t>
   </si>
   <si>
+    <t>40002000380749 /POP  SUPPLY GOO /DSOR SERV /PHON  447882049778</t>
+  </si>
+  <si>
     <t>Card transaction of 40.15 USD issued by Courtyard Dulles Twn Ctrn DULLES</t>
   </si>
   <si>
     <t>Card transaction of 99.99 USD issued by Bnp Media Sub-Enr Ar News 8665017541</t>
   </si>
   <si>
+    <t>Salary</t>
+  </si>
+  <si>
     <t>Sent money to Crestbridge Solutions Pty ltd</t>
   </si>
   <si>
+    <t>Inv 0063</t>
+  </si>
+  <si>
     <t>Received money from ALIGNED DATA PHX with reference PHX11.04.2</t>
   </si>
   <si>
+    <t>PHX11.04.2</t>
+  </si>
+  <si>
     <t>Card transaction of 299.00 USD issued by Mixpanel, Inc. +19492326176</t>
   </si>
   <si>
@@ -327,6 +446,9 @@
     <t>Card transaction of 3,539.26 GBP issued by Hubspot Ireland Ltd Dublin</t>
   </si>
   <si>
+    <t>elt</t>
+  </si>
+  <si>
     <t>Card transaction of 11.60 GBP issued by El Al Air 4029357733</t>
   </si>
   <si>
@@ -351,156 +473,39 @@
     <t>Card transaction of 180.01 USD issued by Otter.ai +18028920568</t>
   </si>
   <si>
+    <t>cs</t>
+  </si>
+  <si>
     <t>Card transaction of 390.00 USD issued by Fathom.video +14153091158</t>
   </si>
   <si>
     <t>Card Cashback</t>
   </si>
   <si>
+    <t>2497086</t>
+  </si>
+  <si>
     <t>Card transaction of 2,993.57 GBP issued by Paypal *Hotels.com 35314369001</t>
   </si>
   <si>
     <t>Paid to DAVID LLOYD LEISURE LIMITED</t>
   </si>
   <si>
+    <t>0772B737-31102024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rent </t>
+  </si>
+  <si>
     <t>Paid to ESSELCO OFFICE PROPERTIES LTD</t>
   </si>
   <si>
-    <t>Payment Reference</t>
-  </si>
-  <si>
-    <t>Foresight</t>
-  </si>
-  <si>
-    <t>november</t>
-  </si>
-  <si>
-    <t>Novemebr</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Final sal</t>
-  </si>
-  <si>
-    <t>PAYMENT</t>
-  </si>
-  <si>
-    <t>/ROC/CPBT28782838///URI/INVOICE 1411241 Q4</t>
-  </si>
-  <si>
-    <t>inv 1671</t>
-  </si>
-  <si>
-    <t>099581FC-19112024</t>
-  </si>
-  <si>
-    <t>Inv 3</t>
-  </si>
-  <si>
-    <t>Spa</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
-    <t>0E6D66B8-06112024</t>
-  </si>
-  <si>
-    <t>40002000380749 /POP  SUPPLY GOO /DSOR SERV /PHON  447882049778</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Inv 0063</t>
-  </si>
-  <si>
-    <t>PHX11.04.2</t>
-  </si>
-  <si>
-    <t>2497086</t>
-  </si>
-  <si>
-    <t>0772B737-31102024</t>
-  </si>
-  <si>
     <t>0447A18B-31102024</t>
   </si>
   <si>
     <t>GBP</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t>g&amp;a</t>
-  </si>
-  <si>
-    <t>professional services</t>
-  </si>
-  <si>
-    <t>ops</t>
-  </si>
-  <si>
-    <t>payroll</t>
-  </si>
-  <si>
-    <t>prt</t>
-  </si>
-  <si>
-    <t>sundry</t>
-  </si>
-  <si>
-    <t>sundy</t>
-  </si>
-  <si>
-    <t>elt</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>hardware</t>
-  </si>
-  <si>
-    <t>marketing</t>
-  </si>
-  <si>
-    <t>advertising</t>
-  </si>
-  <si>
-    <t>expenses</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>hosting</t>
-  </si>
-  <si>
-    <t>r&amp;d &amp; product</t>
-  </si>
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rent </t>
-  </si>
-  <si>
     <t>Card transaction of GBP issued by El Al LONDON</t>
   </si>
   <si>
@@ -630,6 +635,9 @@
     <t>Happy hour</t>
   </si>
   <si>
+    <t>taxes</t>
+  </si>
+  <si>
     <t>Income Tax Adv.</t>
   </si>
   <si>
@@ -645,18 +653,15 @@
     <t>Boris Kogen</t>
   </si>
   <si>
-    <t>taxes</t>
-  </si>
-  <si>
-    <t>Exchange Rate</t>
-  </si>
-  <si>
     <t>Sent money to Client AC re Foresight Works</t>
   </si>
   <si>
     <t>Sent money to Foresight Works Ltd</t>
   </si>
   <si>
+    <t>Insurance</t>
+  </si>
+  <si>
     <t>Card transaction of 97.61 GBP issued by Chisou Restaurant London</t>
   </si>
   <si>
@@ -736,18 +741,6 @@
   </si>
   <si>
     <t>Card transaction of -822.87 GBP issued by Paypal *Hotels.com 35314369001</t>
-  </si>
-  <si>
-    <t>Insurance</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>gfjfiy</t>
   </si>
 </sst>
 </file>
@@ -759,9 +752,11 @@
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -790,12 +785,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,26 +1123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr autoPageBreaks="0"/>
-  </sheetPr>
-  <dimension ref="A1:H1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7CD38C9-87B3-CE46-ADD1-0E4EE155A183}">
+  <dimension ref="A1:H214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="F222" sqref="F222"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="124.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="124.5" customWidth="1"/>
-    <col min="8" max="8" width="63.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1160,2791 +1142,2791 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>133</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>204</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>45626</v>
       </c>
       <c r="B2">
         <v>-454.84</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>45626</v>
       </c>
       <c r="B3">
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>45625</v>
       </c>
       <c r="B4">
         <v>-16.579999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>45625</v>
       </c>
       <c r="B5">
         <v>-16.04</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>45625</v>
       </c>
       <c r="B6">
         <v>-891.31</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>45625</v>
       </c>
       <c r="B7">
         <v>-4728.29</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>141</v>
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>45625</v>
       </c>
       <c r="B8">
         <v>-170.33</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>45625</v>
       </c>
       <c r="B9">
         <v>-137031.59</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>45625</v>
       </c>
       <c r="B10">
         <v>-14.02</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>45624</v>
       </c>
       <c r="B11">
         <v>-96</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>45624</v>
       </c>
       <c r="B12">
         <v>-101745.5</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>45624</v>
       </c>
       <c r="B13">
         <v>-364.48</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>45624</v>
       </c>
       <c r="B14">
         <v>-315.91000000000003</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>45623</v>
       </c>
       <c r="B15">
         <v>-63.57</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>45623</v>
       </c>
       <c r="B16">
         <v>-31.77</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>45623</v>
       </c>
       <c r="B17">
         <v>-34.76</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>45623</v>
       </c>
       <c r="B18">
         <v>-25.13</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>45623</v>
       </c>
       <c r="B19">
         <v>-35.9</v>
       </c>
       <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>45622</v>
       </c>
       <c r="B20">
         <v>-20</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>45621</v>
       </c>
       <c r="B21">
         <v>-2780.23</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>45621</v>
       </c>
       <c r="B22">
         <v>-6056.49</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H22" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>45620</v>
       </c>
       <c r="B23">
         <v>-14.99</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>45620</v>
       </c>
       <c r="B24">
         <v>-66.819999999999993</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>45619</v>
       </c>
       <c r="B25">
         <v>-60.3</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>45619</v>
       </c>
       <c r="B26">
         <v>-132.77000000000001</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>45619</v>
       </c>
       <c r="B27">
         <v>-144</v>
       </c>
       <c r="C27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>45618</v>
       </c>
       <c r="B28">
         <v>-138</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>45618</v>
       </c>
       <c r="B29">
         <v>-16.079999999999998</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>45618</v>
       </c>
       <c r="B30">
         <v>7500</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>45618</v>
       </c>
       <c r="B31">
         <v>-599.15</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>45618</v>
       </c>
       <c r="B32">
         <v>-1851.17</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>45617</v>
       </c>
       <c r="B33">
         <v>4642.49</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>45617</v>
       </c>
       <c r="B34">
         <v>-1077.5</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>45617</v>
       </c>
       <c r="B35">
         <v>-3.43</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>45616</v>
       </c>
       <c r="B36">
         <v>-9124.61</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>45616</v>
       </c>
       <c r="B37">
         <v>-523.86</v>
       </c>
       <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>45615</v>
       </c>
       <c r="B38">
         <v>-1638.91</v>
       </c>
       <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>45615</v>
       </c>
       <c r="B39">
         <v>-5000</v>
       </c>
       <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>45614</v>
       </c>
       <c r="B40">
         <v>-63.53</v>
       </c>
       <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>45614</v>
       </c>
       <c r="B41">
         <v>-61.83</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>45614</v>
       </c>
       <c r="B42">
         <v>-149</v>
       </c>
       <c r="C42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>45612</v>
       </c>
       <c r="B43">
         <v>-180</v>
       </c>
       <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>45611</v>
       </c>
       <c r="B44">
         <v>-33.6</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F44" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>45611</v>
       </c>
       <c r="B45">
         <v>7500</v>
       </c>
       <c r="C45" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>45611</v>
       </c>
       <c r="B46">
         <v>-490000</v>
       </c>
       <c r="C46" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45611</v>
       </c>
       <c r="B47">
         <v>-10000</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>45611</v>
       </c>
       <c r="B48">
         <v>-152516.06</v>
       </c>
       <c r="C48" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>45610</v>
       </c>
       <c r="B49">
         <v>-1166.6600000000001</v>
       </c>
       <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>45610</v>
       </c>
       <c r="B50">
         <v>-882.84</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>45608</v>
       </c>
       <c r="B51">
         <v>-790.43</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>45607</v>
       </c>
       <c r="B52">
         <v>-24</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>45606</v>
       </c>
       <c r="B53">
         <v>-95</v>
       </c>
       <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>45605</v>
       </c>
       <c r="B54">
         <v>-87.95</v>
       </c>
       <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>45605</v>
       </c>
       <c r="B55">
         <v>-1166.6600000000001</v>
       </c>
       <c r="C55" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>45604</v>
       </c>
       <c r="B56">
         <v>19.02</v>
       </c>
       <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>45604</v>
       </c>
       <c r="B57">
         <v>-1</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>45604</v>
       </c>
       <c r="B58">
         <v>-9.9700000000000006</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>45604</v>
       </c>
       <c r="B59">
         <v>-103.5</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>136</v>
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>45604</v>
       </c>
       <c r="B60">
         <v>-4.53</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>45604</v>
       </c>
       <c r="B61">
         <v>-59.51</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>45603</v>
       </c>
       <c r="B62">
         <v>-77.099999999999994</v>
       </c>
       <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>45603</v>
       </c>
       <c r="B63">
         <v>-3.98</v>
       </c>
       <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>45603</v>
       </c>
       <c r="B64">
         <v>-17.350000000000001</v>
       </c>
       <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>45603</v>
       </c>
       <c r="B65">
         <v>-2</v>
       </c>
       <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>45603</v>
       </c>
       <c r="B66">
         <v>-16.22</v>
       </c>
       <c r="C66" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>45603</v>
       </c>
       <c r="B67">
         <v>-1027.31</v>
       </c>
       <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>45603</v>
       </c>
       <c r="B68">
         <v>-7.77</v>
       </c>
       <c r="C68" t="s">
-        <v>3</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+      <c r="A69" s="2">
         <v>45603</v>
       </c>
       <c r="B69">
         <v>-0.81</v>
       </c>
       <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+      <c r="A70" s="2">
         <v>45603</v>
       </c>
       <c r="B70">
         <v>-4436.72</v>
       </c>
       <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H70" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+      <c r="A71" s="2">
         <v>45603</v>
       </c>
       <c r="B71">
         <v>-90</v>
       </c>
       <c r="C71" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+      <c r="A72" s="2">
         <v>45602</v>
       </c>
       <c r="B72">
         <v>-8119.73</v>
       </c>
       <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>151</v>
+        <v>8</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="F72" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+      <c r="A73" s="2">
         <v>45602</v>
       </c>
       <c r="B73">
         <v>-5</v>
       </c>
       <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+      <c r="A74" s="2">
         <v>45602</v>
       </c>
       <c r="B74">
         <v>-40</v>
       </c>
       <c r="C74" t="s">
-        <v>3</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+      <c r="A75" s="2">
         <v>45602</v>
       </c>
       <c r="B75">
         <v>-2926.4</v>
       </c>
       <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H75" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+      <c r="A76" s="2">
         <v>45602</v>
       </c>
       <c r="B76">
         <v>-2249.81</v>
       </c>
       <c r="C76" t="s">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="H76" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+      <c r="A77" s="2">
         <v>45602</v>
       </c>
       <c r="B77">
         <v>-9.6199999999999992</v>
       </c>
       <c r="C77" t="s">
-        <v>3</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+      <c r="A78" s="2">
         <v>45602</v>
       </c>
       <c r="B78">
         <v>0.5</v>
       </c>
       <c r="C78" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+      <c r="A79" s="2">
         <v>45602</v>
       </c>
       <c r="B79">
         <v>-41.35</v>
       </c>
       <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+      <c r="A80" s="2">
         <v>45602</v>
       </c>
       <c r="B80">
         <v>-1.08</v>
       </c>
       <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+      <c r="A81" s="2">
         <v>45602</v>
       </c>
       <c r="B81">
         <v>-203.82</v>
       </c>
       <c r="C81" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+      <c r="A82" s="2">
         <v>45602</v>
       </c>
       <c r="B82">
         <v>-20</v>
       </c>
       <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+      <c r="A83" s="2">
         <v>45602</v>
       </c>
       <c r="B83">
         <v>-59.32</v>
       </c>
       <c r="C83" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+      <c r="A84" s="2">
         <v>45601</v>
       </c>
       <c r="B84">
         <v>-28.89</v>
       </c>
       <c r="C84" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+      <c r="A85" s="2">
         <v>45601</v>
       </c>
       <c r="B85">
         <v>-3</v>
       </c>
       <c r="C85" t="s">
-        <v>3</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+      <c r="A86" s="2">
         <v>45601</v>
       </c>
       <c r="B86">
         <v>-40</v>
       </c>
       <c r="C86" t="s">
-        <v>3</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+      <c r="A87" s="2">
         <v>45601</v>
       </c>
       <c r="B87">
         <v>-45</v>
       </c>
       <c r="C87" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+      <c r="A88" s="2">
         <v>45601</v>
       </c>
       <c r="B88">
         <v>83993.89</v>
       </c>
       <c r="C88" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H88" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+      <c r="A89" s="2">
         <v>45601</v>
       </c>
       <c r="B89">
         <v>-10.15</v>
       </c>
       <c r="C89" t="s">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+      <c r="A90" s="2">
         <v>45601</v>
       </c>
       <c r="B90">
         <v>-99.99</v>
       </c>
       <c r="C90" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F90" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+      <c r="A91" s="2">
         <v>45601</v>
       </c>
       <c r="B91">
         <v>-1996.36</v>
       </c>
       <c r="C91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+      <c r="A92" s="2">
         <v>45601</v>
       </c>
       <c r="B92">
         <v>-4774.8</v>
       </c>
       <c r="C92" t="s">
-        <v>3</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+      <c r="A93" s="2">
         <v>45601</v>
       </c>
       <c r="B93">
         <v>-3008.46</v>
       </c>
       <c r="C93" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+      <c r="A94" s="2">
         <v>45601</v>
       </c>
       <c r="B94">
         <v>11250</v>
       </c>
       <c r="C94" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F94" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="H94" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+      <c r="A95" s="2">
         <v>45601</v>
       </c>
       <c r="B95">
         <v>-10</v>
       </c>
       <c r="C95" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+      <c r="A96" s="2">
         <v>45601</v>
       </c>
       <c r="B96">
         <v>-20</v>
       </c>
       <c r="C96" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+      <c r="A97" s="2">
         <v>45601</v>
       </c>
       <c r="B97">
         <v>-65.14</v>
       </c>
       <c r="C97" t="s">
-        <v>3</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+      <c r="A98" s="2">
         <v>45600</v>
       </c>
       <c r="B98">
         <v>-299</v>
       </c>
       <c r="C98" t="s">
-        <v>3</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F98" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+      <c r="A99" s="2">
         <v>45600</v>
       </c>
       <c r="B99">
         <v>-710.53</v>
       </c>
       <c r="C99" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+      <c r="A100" s="2">
         <v>45600</v>
       </c>
       <c r="B100">
         <v>-181.95</v>
       </c>
       <c r="C100" t="s">
-        <v>3</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+      <c r="A101" s="2">
         <v>45600</v>
       </c>
       <c r="B101">
         <v>-99.99</v>
       </c>
       <c r="C101" t="s">
-        <v>3</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+      <c r="A102" s="2">
         <v>45600</v>
       </c>
       <c r="B102">
         <v>-21.94</v>
       </c>
       <c r="C102" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F102" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+      <c r="A103" s="2">
         <v>45600</v>
       </c>
       <c r="B103">
         <v>-97</v>
       </c>
       <c r="C103" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+      <c r="A104" s="2">
         <v>45599</v>
       </c>
       <c r="B104">
         <v>-238.98</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+      <c r="A105" s="2">
         <v>45599</v>
       </c>
       <c r="B105">
         <v>-388.88</v>
       </c>
       <c r="C105" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+      <c r="A106" s="2">
         <v>45599</v>
       </c>
       <c r="B106">
         <v>-10.35</v>
       </c>
       <c r="C106" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+      <c r="A107" s="2">
         <v>45599</v>
       </c>
       <c r="B107">
         <v>-275.45999999999998</v>
       </c>
       <c r="C107" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+      <c r="A108" s="2">
         <v>45599</v>
       </c>
       <c r="B108">
         <v>-1802.07</v>
       </c>
       <c r="C108" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+      <c r="A109" s="2">
         <v>45599</v>
       </c>
       <c r="B109">
         <v>-256.14</v>
       </c>
       <c r="C109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+      <c r="A110" s="2">
         <v>45599</v>
       </c>
       <c r="B110">
         <v>-7.51</v>
       </c>
       <c r="C110" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+      <c r="A111" s="2">
         <v>45599</v>
       </c>
       <c r="B111">
         <v>-313.35000000000002</v>
       </c>
       <c r="C111" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>93</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+      <c r="A112" s="2">
         <v>45599</v>
       </c>
       <c r="B112">
         <v>-65.2</v>
       </c>
       <c r="C112" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+      <c r="A113" s="2">
         <v>45598</v>
       </c>
       <c r="B113">
         <v>-6581.9</v>
       </c>
       <c r="C113" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F113" t="s">
-        <v>95</v>
-      </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+      <c r="A114" s="2">
         <v>45598</v>
       </c>
       <c r="B114">
         <v>-4587.8100000000004</v>
       </c>
       <c r="C114" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" t="s">
         <v>135</v>
       </c>
-      <c r="F114" t="s">
-        <v>96</v>
-      </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+      <c r="A115" s="2">
         <v>45598</v>
       </c>
       <c r="B115">
         <v>-15.04</v>
       </c>
       <c r="C115" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F115" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+      <c r="A116" s="2">
         <v>45598</v>
       </c>
       <c r="B116">
         <v>1.3</v>
       </c>
       <c r="C116" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F116" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+      <c r="A117" s="2">
         <v>45598</v>
       </c>
       <c r="B117">
         <v>-1066.6600000000001</v>
       </c>
       <c r="C117" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F117" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+      <c r="A118" s="2">
         <v>45598</v>
       </c>
       <c r="B118">
         <v>-1.3</v>
       </c>
       <c r="C118" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+      <c r="A119" s="2">
         <v>45598</v>
       </c>
       <c r="B119">
         <v>-30</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+      <c r="A120" s="2">
         <v>45598</v>
       </c>
       <c r="B120">
         <v>-303.42</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F120" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+      <c r="A121" s="2">
         <v>45597</v>
       </c>
       <c r="B121">
         <v>-809.09</v>
       </c>
       <c r="C121" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+      <c r="A122" s="2">
         <v>45597</v>
       </c>
       <c r="B122">
         <v>-262.8</v>
       </c>
       <c r="C122" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+      <c r="A123" s="2">
         <v>45597</v>
       </c>
       <c r="B123">
         <v>-180.01</v>
       </c>
       <c r="C123" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+      <c r="A124" s="2">
         <v>45597</v>
       </c>
       <c r="B124">
         <v>-262.8</v>
       </c>
       <c r="C124" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>139</v>
+        <v>8</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F124" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+      <c r="A125" s="2">
         <v>45597</v>
       </c>
       <c r="B125">
         <v>-24</v>
       </c>
       <c r="C125" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+      <c r="A126" s="2">
         <v>45597</v>
       </c>
       <c r="B126">
         <v>-390</v>
       </c>
       <c r="C126" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F126" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+      <c r="A127" s="2">
         <v>45597</v>
       </c>
       <c r="B127">
         <v>37.729999999999997</v>
       </c>
       <c r="C127" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+      <c r="A128" s="2">
         <v>45597</v>
       </c>
       <c r="B128">
         <v>1.3</v>
       </c>
       <c r="C128" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+      <c r="A129" s="2">
         <v>45597</v>
       </c>
       <c r="B129">
         <v>-3879.7</v>
       </c>
       <c r="C129" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>144</v>
+        <v>8</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F129" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+      <c r="A130" s="2">
         <v>45597</v>
       </c>
       <c r="B130">
         <v>-1.3</v>
       </c>
       <c r="C130" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>135</v>
+        <v>8</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+      <c r="A131" s="2">
         <v>45597</v>
       </c>
       <c r="B131">
         <v>-391.7</v>
       </c>
       <c r="C131" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>137</v>
+        <v>8</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="H131" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+      <c r="A132" s="2">
         <v>45597</v>
       </c>
       <c r="B132">
         <v>-17907.939999999999</v>
       </c>
       <c r="C132" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>153</v>
+      </c>
+      <c r="H132" t="s">
         <v>154</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F132" t="s">
-        <v>109</v>
-      </c>
-      <c r="H132" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+      <c r="A133" s="2">
         <v>45597</v>
       </c>
       <c r="B133">
         <v>-48.32</v>
       </c>
       <c r="C133" t="s">
-        <v>131</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F133" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+      <c r="A134" s="2">
         <v>45597</v>
       </c>
       <c r="B134">
         <v>-27.06</v>
       </c>
       <c r="C134" t="s">
-        <v>131</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F134" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+      <c r="A135" s="2">
         <v>45597</v>
       </c>
       <c r="B135">
         <v>-20.6</v>
       </c>
       <c r="C135" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F135" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+      <c r="A136" s="2">
         <v>45597</v>
       </c>
       <c r="B136">
         <v>-22.8</v>
       </c>
       <c r="C136" t="s">
-        <v>131</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F136" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+      <c r="A137" s="2">
         <v>45597</v>
       </c>
       <c r="B137">
         <v>-15.3</v>
       </c>
       <c r="C137" t="s">
-        <v>131</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F137" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+      <c r="A138" s="2">
         <v>45597</v>
       </c>
       <c r="B138">
         <v>-12.2</v>
       </c>
       <c r="C138" t="s">
-        <v>131</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+      <c r="A139" s="2">
         <v>45597</v>
       </c>
       <c r="B139">
         <v>146.28</v>
       </c>
       <c r="C139" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F139" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+      <c r="A140" s="2">
         <v>45597</v>
       </c>
       <c r="B140">
         <v>-5060.0600000000004</v>
       </c>
       <c r="C140" t="s">
-        <v>131</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F140" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3955,16 +3937,16 @@
         <v>-922.51</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
@@ -3975,16 +3957,16 @@
         <v>-333.2</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3995,16 +3977,16 @@
         <v>-31.67</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
@@ -4015,16 +3997,16 @@
         <v>-66.349999999999994</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -4035,16 +4017,16 @@
         <v>-66.8</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -4055,16 +4037,16 @@
         <v>-16017.13</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>135</v>
+        <v>162</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -4075,16 +4057,16 @@
         <v>-8540.4599999999991</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>139</v>
+        <v>162</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -4095,16 +4077,16 @@
         <v>-7117.97</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -4115,16 +4097,16 @@
         <v>-4454.4799999999996</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -4135,16 +4117,16 @@
         <v>-5111.2299999999996</v>
       </c>
       <c r="C150" t="s">
-        <v>161</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -4155,16 +4137,16 @@
         <v>-9488.7999999999993</v>
       </c>
       <c r="C151" t="s">
-        <v>161</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -4175,16 +4157,16 @@
         <v>-1014.4</v>
       </c>
       <c r="C152" t="s">
-        <v>161</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -4195,1425 +4177,1142 @@
         <v>16079.72</v>
       </c>
       <c r="C153" t="s">
-        <v>161</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>144</v>
+        <v>162</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+      <c r="A154" s="2">
         <v>45625</v>
       </c>
       <c r="B154">
         <v>-2892.08</v>
       </c>
       <c r="C154" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H154" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+      <c r="A155" s="2">
         <v>45625</v>
       </c>
       <c r="B155">
         <v>-1.1299999999999999</v>
       </c>
       <c r="C155" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F155" t="s">
+        <v>178</v>
+      </c>
+      <c r="H155" t="s">
         <v>177</v>
       </c>
-      <c r="H155" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+      <c r="A156" s="2">
         <v>45625</v>
       </c>
       <c r="B156">
         <v>-7872.92</v>
       </c>
       <c r="C156" t="s">
-        <v>3</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>153</v>
+        <v>8</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F156" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H156" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+      <c r="A157" s="2">
         <v>45625</v>
       </c>
       <c r="B157">
         <v>-1.1299999999999999</v>
       </c>
       <c r="C157" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F157" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H157" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+      <c r="A158" s="2">
         <v>45625</v>
       </c>
       <c r="B158">
         <v>-2723.29</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F158" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H158" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+      <c r="A159" s="2">
         <v>45625</v>
       </c>
       <c r="B159">
         <v>-1.1299999999999999</v>
       </c>
       <c r="C159" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F159" t="s">
+        <v>182</v>
+      </c>
+      <c r="H159" t="s">
         <v>181</v>
       </c>
-      <c r="H159" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+      <c r="A160" s="2">
         <v>45625</v>
       </c>
       <c r="B160">
         <v>-6347.15</v>
       </c>
       <c r="C160" t="s">
-        <v>3</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>147</v>
+        <v>8</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="F160" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H160" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+      <c r="A161" s="2">
         <v>45625</v>
       </c>
       <c r="B161">
         <v>-1.1299999999999999</v>
       </c>
       <c r="C161" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H161" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+      <c r="A162" s="2">
         <v>45611</v>
       </c>
       <c r="B162">
         <v>490000</v>
       </c>
       <c r="C162" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H162" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+      <c r="A163" s="2">
         <v>45611</v>
       </c>
       <c r="B163">
         <v>10000</v>
       </c>
       <c r="C163" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H163" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A164" s="2"/>
       <c r="B164">
         <v>-17491.940897645432</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>152</v>
+      <c r="C164" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A165" s="2"/>
       <c r="B165">
         <v>-14625.377874372498</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>152</v>
+      <c r="C165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A166" s="2"/>
       <c r="B166">
         <v>-13372.901251195279</v>
       </c>
-      <c r="C166" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>152</v>
+      <c r="C166" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A167" s="2"/>
       <c r="B167">
         <v>-12778.943651919006</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>152</v>
+      <c r="C167" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A168" s="2"/>
       <c r="B168">
         <v>-9830.1318532816076</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>152</v>
+      <c r="C168" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A169" s="2"/>
       <c r="B169">
         <v>-10537.227335115933</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>152</v>
+      <c r="C169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A170" s="2"/>
       <c r="B170">
         <v>-9108.6378677116663</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>152</v>
+      <c r="C170" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A171" s="2"/>
       <c r="B171">
         <v>-9522.6649547714933</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>152</v>
+      <c r="C171" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A172" s="2"/>
       <c r="B172">
         <v>-9395.1517526963835</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>152</v>
+      <c r="C172" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A173" s="2"/>
       <c r="B173">
         <v>-8601.9053707120111</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E173" s="2" t="s">
+      <c r="C173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="E173" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A174" s="2"/>
       <c r="B174">
         <v>-3588.0338246243155</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>152</v>
+      <c r="C174" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A175" s="2"/>
       <c r="B175">
         <v>-1563.0027345267306</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>152</v>
+      <c r="C175" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A176" s="2"/>
       <c r="B176">
         <v>-349.69529659992367</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>152</v>
+      <c r="C176" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A177" s="2"/>
       <c r="B177">
         <v>-2760.0260189417813</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>152</v>
+      <c r="C177" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A178" s="2"/>
       <c r="B178">
         <v>-8073.0761054047098</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>152</v>
+      <c r="C178" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F178" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A179" s="2"/>
       <c r="B179">
         <v>-1248.3597683673677</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>152</v>
+      <c r="C179" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F179" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A180" s="2"/>
       <c r="B180">
         <v>-3312.0312227301374</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>152</v>
+      <c r="C180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F180" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
-        <v>45625</v>
-      </c>
+      <c r="A181" s="2"/>
       <c r="B181">
         <v>-871.89221938370872</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>152</v>
+      <c r="C181" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="F181" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+      <c r="A182" s="2">
         <v>45624</v>
       </c>
       <c r="B182">
         <v>-80000</v>
       </c>
       <c r="C182" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F182" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+      <c r="A183" s="2">
         <v>45624</v>
       </c>
       <c r="B183">
         <v>80000</v>
       </c>
       <c r="C183" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+      <c r="A184" s="2">
         <v>45623</v>
       </c>
       <c r="B184">
         <v>-50</v>
       </c>
       <c r="C184" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F184" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+      <c r="A185" s="2">
         <v>45623</v>
       </c>
       <c r="B185">
         <v>50</v>
       </c>
       <c r="C185" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+      <c r="A186" s="2">
         <v>45616</v>
       </c>
       <c r="B186">
         <v>-2147.15</v>
       </c>
       <c r="C186" t="s">
-        <v>131</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+      <c r="A187" s="2">
         <v>45615</v>
       </c>
       <c r="B187">
         <v>-97.61</v>
       </c>
       <c r="C187" t="s">
-        <v>131</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F187" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+      <c r="A188" s="2">
         <v>45614</v>
       </c>
       <c r="B188">
         <v>-13</v>
       </c>
       <c r="C188" t="s">
-        <v>131</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F188" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+      <c r="A189" s="2">
         <v>45614</v>
       </c>
       <c r="B189">
         <v>-139.21</v>
       </c>
       <c r="C189" t="s">
-        <v>131</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F189" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+      <c r="A190" s="2">
         <v>45614</v>
       </c>
       <c r="B190">
         <v>-8.99</v>
       </c>
       <c r="C190" t="s">
-        <v>131</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F190" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+      <c r="A191" s="2">
         <v>45614</v>
       </c>
       <c r="B191">
         <v>-1500</v>
       </c>
       <c r="C191" t="s">
-        <v>131</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+      <c r="A192" s="2">
         <v>45612</v>
       </c>
       <c r="B192">
         <v>-1602</v>
       </c>
       <c r="C192" t="s">
-        <v>131</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="F192" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+      <c r="A193" s="2">
         <v>45612</v>
       </c>
       <c r="B193">
         <v>-613.44000000000005</v>
       </c>
       <c r="C193" t="s">
-        <v>131</v>
-      </c>
-      <c r="D193" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D193" s="1"/>
       <c r="F193" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+      <c r="A194" s="2">
         <v>45611</v>
       </c>
       <c r="B194">
         <v>-17.2</v>
       </c>
       <c r="C194" t="s">
-        <v>131</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F194" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+      <c r="A195" s="2">
         <v>45611</v>
       </c>
       <c r="B195">
         <v>-53.2</v>
       </c>
       <c r="C195" t="s">
-        <v>131</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+      <c r="A196" s="2">
         <v>45611</v>
       </c>
       <c r="B196">
         <v>-154200</v>
       </c>
       <c r="C196" t="s">
-        <v>131</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="F196" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+      <c r="A197" s="2">
         <v>45611</v>
       </c>
       <c r="B197">
         <v>120000</v>
       </c>
       <c r="C197" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F197" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+      <c r="A198" s="2">
         <v>45611</v>
       </c>
       <c r="B198">
         <v>-207.83</v>
       </c>
       <c r="C198" t="s">
-        <v>131</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F198" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+      <c r="A199" s="2">
         <v>45609</v>
       </c>
       <c r="B199">
         <v>-79.989999999999995</v>
       </c>
       <c r="C199" t="s">
-        <v>131</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F199" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+      <c r="A200" s="2">
         <v>45609</v>
       </c>
       <c r="B200">
         <v>-32.799999999999997</v>
       </c>
       <c r="C200" t="s">
-        <v>131</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F200" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+      <c r="A201" s="2">
         <v>45608</v>
       </c>
       <c r="B201">
         <v>39985</v>
       </c>
       <c r="C201" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F201" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+      <c r="A202" s="2">
         <v>45608</v>
       </c>
       <c r="B202">
         <v>-6.2</v>
       </c>
       <c r="C202" t="s">
-        <v>131</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F202" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+      <c r="A203" s="2">
         <v>45607</v>
       </c>
       <c r="B203">
         <v>-16.399999999999999</v>
       </c>
       <c r="C203" t="s">
-        <v>131</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F203" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+      <c r="A204" s="2">
         <v>45607</v>
       </c>
       <c r="B204">
         <v>-11.4</v>
       </c>
       <c r="C204" t="s">
-        <v>131</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F204" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+      <c r="A205" s="2">
         <v>45607</v>
       </c>
       <c r="B205">
         <v>-24.9</v>
       </c>
       <c r="C205" t="s">
-        <v>131</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F205" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+      <c r="A206" s="2">
         <v>45607</v>
       </c>
       <c r="B206">
         <v>229.95</v>
       </c>
       <c r="C206" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="F206" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+      <c r="A207" s="2">
         <v>45607</v>
       </c>
       <c r="B207">
         <v>-5.35</v>
       </c>
       <c r="C207" t="s">
-        <v>131</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+      <c r="A208" s="2">
         <v>45606</v>
       </c>
       <c r="B208">
         <v>-16.64</v>
       </c>
       <c r="C208" t="s">
-        <v>131</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F208" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+      <c r="A209" s="2">
         <v>45606</v>
       </c>
       <c r="B209">
         <v>-45.83</v>
       </c>
       <c r="C209" t="s">
-        <v>131</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F209" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+      <c r="A210" s="2">
         <v>45606</v>
       </c>
       <c r="B210">
         <v>-14.04</v>
       </c>
       <c r="C210" t="s">
-        <v>131</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F210" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+      <c r="A211" s="2">
         <v>45604</v>
       </c>
       <c r="B211">
         <v>-16.64</v>
       </c>
       <c r="C211" t="s">
-        <v>131</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F211" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+      <c r="A212" s="2">
         <v>45604</v>
       </c>
       <c r="B212">
         <v>-15.6</v>
       </c>
       <c r="C212" t="s">
-        <v>131</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>137</v>
+        <v>155</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F212" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+      <c r="A213" s="2">
         <v>45604</v>
       </c>
       <c r="B213">
         <v>-152.4</v>
       </c>
       <c r="C213" t="s">
-        <v>131</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+      <c r="A214" s="2">
         <v>45604</v>
       </c>
       <c r="B214">
         <v>822.87</v>
       </c>
       <c r="C214" t="s">
-        <v>131</v>
-      </c>
-      <c r="D214" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D214" s="1"/>
       <c r="F214" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F220" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F222" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F223" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1048576" s="1">
-        <v>45625</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="0" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88020EE-5656-0547-8B6A-71520132AB6C}">
-  <dimension ref="C9:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C9">
-        <v>16017.13</v>
-      </c>
-      <c r="D9">
-        <f>C9*-1</f>
-        <v>-16017.13</v>
-      </c>
-      <c r="G9">
-        <v>17491.940897645432</v>
-      </c>
-      <c r="H9">
-        <f>G9*-1</f>
-        <v>-17491.940897645432</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <v>8540.4599999999991</v>
-      </c>
-      <c r="D10">
-        <f t="shared" ref="D10:D15" si="0">C10*-1</f>
-        <v>-8540.4599999999991</v>
-      </c>
-      <c r="G10">
-        <v>14625.377874372498</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H26" si="1">G10*-1</f>
-        <v>-14625.377874372498</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C11">
-        <v>7117.97</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>-7117.97</v>
-      </c>
-      <c r="G11">
-        <v>13372.901251195279</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>-13372.901251195279</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C12">
-        <v>4454.4799999999996</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>-4454.4799999999996</v>
-      </c>
-      <c r="G12">
-        <v>12778.943651919006</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="1"/>
-        <v>-12778.943651919006</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C13">
-        <v>5111.2299999999996</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="0"/>
-        <v>-5111.2299999999996</v>
-      </c>
-      <c r="G13">
-        <v>9830.1318532816076</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="1"/>
-        <v>-9830.1318532816076</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C14">
-        <v>9488.7999999999993</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>-9488.7999999999993</v>
-      </c>
-      <c r="G14">
-        <v>10537.227335115933</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="1"/>
-        <v>-10537.227335115933</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C15">
-        <v>1014.4</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>-1014.4</v>
-      </c>
-      <c r="G15">
-        <v>9108.6378677116663</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="1"/>
-        <v>-9108.6378677116663</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="G16">
-        <v>9522.6649547714933</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="1"/>
-        <v>-9522.6649547714933</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G17">
-        <v>9395.1517526963835</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>-9395.1517526963835</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G18">
-        <v>8601.9053707120111</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="1"/>
-        <v>-8601.9053707120111</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G19">
-        <v>3588.0338246243155</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="1"/>
-        <v>-3588.0338246243155</v>
-      </c>
-    </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G20">
-        <v>1563.0027345267306</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="1"/>
-        <v>-1563.0027345267306</v>
-      </c>
-    </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G21">
-        <v>349.69529659992367</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="1"/>
-        <v>-349.69529659992367</v>
-      </c>
-    </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G22">
-        <v>2760.0260189417813</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="1"/>
-        <v>-2760.0260189417813</v>
-      </c>
-    </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G23">
-        <v>8073.0761054047098</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="1"/>
-        <v>-8073.0761054047098</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G24">
-        <v>1248.3597683673677</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="1"/>
-        <v>-1248.3597683673677</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G25">
-        <v>3312.0312227301374</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="1"/>
-        <v>-3312.0312227301374</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G26" s="4">
-        <v>871.89221938370872</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="1"/>
-        <v>-871.89221938370872</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
